--- a/xlsx/春分_intext.xlsx
+++ b/xlsx/春分_intext.xlsx
@@ -29,7 +29,7 @@
     <t>节气</t>
   </si>
   <si>
-    <t>政策_政策_美國_春分</t>
+    <t>政策_政策_美国_春分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%98%A5</t>
@@ -173,7 +173,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%94%E8%AA%BF%E4%B8%96%E7%95%8C%E6%99%82</t>
   </si>
   <si>
-    <t>協調世界時</t>
+    <t>协调世界时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B2%E6%94%AF</t>
@@ -317,7 +317,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%99%B4%E6%B0%A3%E6%8E%A8%E9%80%B2%E5%AF%A6%E9%A9%97%E5%AE%A4%E7%B7%9A%E4%B8%8A%E6%9B%86%E6%9B%B8%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>噴氣推進實驗室線上曆書系統</t>
+    <t>喷气推进实验室线上历书系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%AD%A3</t>
@@ -329,7 +329,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%9B%86</t>
   </si>
   <si>
-    <t>公曆</t>
+    <t>公历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3</t>
@@ -359,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%9D%E5%A4%9C%E5%B9%B3%E5%88%86%E9%BB%9E</t>
   </si>
   <si>
-    <t>晝夜平分點</t>
+    <t>昼夜平分点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E9%98%B3%E7%9B%B4%E5%B0%84%E7%82%B9</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E8%AA%98</t>
   </si>
   <si>
-    <t>高誘</t>
+    <t>高诱</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7</t>
@@ -431,13 +431,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%BB%E6%9C%83</t>
   </si>
   <si>
-    <t>韻會</t>
+    <t>韵会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB</t>
   </si>
   <si>
-    <t>電</t>
+    <t>电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%93%E7%BB%8F</t>
@@ -467,19 +467,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%A5%E6%9C%AC%E7%AF%80%E6%97%A5</t>
   </si>
   <si>
-    <t>日本節日</t>
+    <t>日本节日</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E6%9B%86</t>
   </si>
   <si>
-    <t>伊朗曆</t>
+    <t>伊朗历</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E5%90%BE%E8%82%89%E5%AD%9C%E7%AF%80</t>
   </si>
   <si>
-    <t>納吾肉孜節</t>
+    <t>纳吾肉孜节</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E6%96%AF</t>
@@ -503,13 +503,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>中亞</t>
+    <t>中亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%84%82%E5%9C%96%E6%9B%BC%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>鄂圖曼帝國</t>
+    <t>鄂图曼帝国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%9C%E7%81%AB%E6%95%99</t>
@@ -539,7 +539,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E9%99%A2%E8%BE%B2%E6%A5%AD%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>行政院農業委員會</t>
+    <t>行政院农业委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%B0%E7%90%83%E5%85%AC%E8%BD%AC</t>

--- a/xlsx/春分_intext.xlsx
+++ b/xlsx/春分_intext.xlsx
@@ -29,7 +29,7 @@
     <t>节气</t>
   </si>
   <si>
-    <t>政策_政策_美國_春分</t>
+    <t>体育运动_体育运动_伊朗_春分</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%98%A5</t>
